--- a/data/trans_bre/CONS_TEN-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>12,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>31,65%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 13,12</t>
+          <t>0,06; 12,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,37; 18,03</t>
+          <t>6,42; 20,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,5</t>
+          <t>4,5; 17,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 35,22</t>
+          <t>0,1; 39,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,16; 52,51</t>
+          <t>16,22; 71,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 41,49</t>
+          <t>11,93; 55,08</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,36%</t>
+          <t>-22,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>101,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,83%</t>
+          <t>-6,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 0,45</t>
+          <t>-7,04; -2,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 16,54</t>
+          <t>-1,55; 38,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,56; -2,52</t>
+          <t>-3,25; 1,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 2,71</t>
+          <t>-32,04; -11,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 112,86</t>
+          <t>-11,01; 412,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,56; -13,14</t>
+          <t>-21,23; 11,1</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-47,48%</t>
+          <t>-50,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-39,45%</t>
+          <t>-36,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-50,82%</t>
+          <t>-48,0%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -3,02</t>
+          <t>-9,93; -4,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -3,57</t>
+          <t>-10,96; -2,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -4,46</t>
+          <t>-8,13; -2,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-63,84; -26,37</t>
+          <t>-63,16; -35,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,44; -23,7</t>
+          <t>-51,48; -16,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,05; -36,53</t>
+          <t>-64,57; -25,84</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-14,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>63,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,56</t>
+          <t>-4,91; -1,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 12,1</t>
+          <t>1,17; 32,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -1,49</t>
+          <t>-1,34; 2,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 7,7</t>
+          <t>-22,52; -6,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 60,95</t>
+          <t>4,91; 231,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,52; -7,89</t>
+          <t>-7,93; 16,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_TEN-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,21</t>
+          <t>2,1; 13,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,42; 20,55</t>
+          <t>5,72; 19,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 39,5</t>
+          <t>5,9; 45,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 71,82</t>
+          <t>14,37; 64,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>-17,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -2,36</t>
+          <t>-5,46; -1,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 38,94</t>
+          <t>-1,1; 43,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,04; -11,62</t>
+          <t>-27,44; -6,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 412,41</t>
+          <t>-8,27; 427,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-50,2%</t>
+          <t>-44,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -4,28</t>
+          <t>-8,85; -3,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -2,53</t>
+          <t>-10,69; -2,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-63,16; -35,75</t>
+          <t>-57,64; -26,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,48; -16,07</t>
+          <t>-51,13; -15,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,88%</t>
+          <t>-11,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; -1,24</t>
+          <t>-3,92; -0,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 32,75</t>
+          <t>1,63; 31,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -6,33</t>
+          <t>-19,5; -1,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 231,64</t>
+          <t>9,06; 250,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_TEN-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TEN-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>12,69</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>7,38</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,9</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>37,66%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>23,42%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>37,39%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>31,65%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5,49; 18,8</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 17,08</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,1; 13,05</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 19,63</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 17,08</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>14,77; 64,01</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 55,08</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>5,9; 45,98</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>14,37; 64,88</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>11,93; 55,08</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-3,25</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-9,67%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-6,78%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-17,21%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>101,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-6,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-3,8; 0,94</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 1,42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-5,46; -1,14</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 43,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 1,42</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-23,16; 6,97</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-21,23; 11,1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-27,44; -6,49</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,27; 427,88</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-21,23; 11,1</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-5,69</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-5,15</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-5,88</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,15</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-31,75%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-48,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-44,35%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-36,67%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-48,0%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-9,64; -1,77</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; -2,29</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-8,85; -3,15</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,69; -2,48</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; -2,29</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-47,54; -11,3</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-64,57; -25,84</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-57,64; -26,32</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-51,13; -15,96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-64,57; -25,84</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,14</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-11,27%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>63,31%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,4; 3,61</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 2,57</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-3,92; -0,36</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 31,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 2,57</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-2,22; 21,16</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; 16,87</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-19,5; -1,95</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9,06; 250,02</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 16,87</t>
         </is>
       </c>
     </row>
